--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>citation</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>body_md</t>
         </is>
       </c>
@@ -529,7 +534,8 @@
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Revengeful trading,
  our lives.</t>
@@ -577,7 +583,8 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Amazing
  always
@@ -627,7 +634,8 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Deconspire
  yourself.</t>
@@ -671,7 +679,8 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Broken things
  bear my name.</t>
@@ -715,7 +724,8 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>In the place 
  where he died,
@@ -768,7 +778,8 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>To paradise 
  we don't arrive, 
@@ -813,7 +824,8 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>The flies 
  know 
@@ -859,7 +871,8 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Behind
  every evil woman,
@@ -905,7 +918,8 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>They were
  four kings,
@@ -951,7 +965,8 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Dan Overcash
  is always broke.</t>
@@ -995,7 +1010,8 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Let's play it 
  our way
@@ -1040,7 +1056,8 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>A battery
  increases his size
@@ -1087,7 +1104,8 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>In the living room
  I have now
@@ -1133,7 +1151,8 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Two seconds ago
  this river wasn't here.</t>
@@ -1177,7 +1196,8 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Mummies
  digitally
@@ -1222,7 +1242,8 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
         <is>
           <t>During starry nights, 
  remember always to spot
@@ -1267,7 +1288,8 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Attention is a currency,
  you always must 
@@ -1312,7 +1334,8 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>For the photon,
  we are still photography.</t>
@@ -1356,7 +1379,8 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
         <is>
           <t>A house is not a home,
  if you are not welcome.</t>
@@ -1400,7 +1424,8 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Don't wait 
  "for the pain to make sense"</t>
@@ -1444,7 +1469,8 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>A missing piece,
  makes obsolete
@@ -1491,6 +1517,13 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>Neil Peart, 
+Rush, 
+Supercoductor.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>Reverse Engineer
  "the fantasies that you romance to"</t>
         </is>
@@ -1533,7 +1566,8 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Messenger
  and Message
@@ -1578,7 +1612,8 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Opium wars
  backfire.</t>
@@ -1622,7 +1657,8 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Deliver us
  from anything
@@ -1668,7 +1704,8 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
         <is>
           <t>A basketball's free throw
  never lies.</t>
@@ -1712,7 +1749,8 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
         <is>
           <t>A gun
  that retrogrades
@@ -1758,7 +1796,8 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Wish
  that the person 
@@ -1805,7 +1844,8 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Symmetry
  is mirrored
@@ -1850,7 +1890,8 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
         <is>
           <t>If the audience is too big,
  nothing important
@@ -1895,7 +1936,8 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Virus
  database
@@ -1941,7 +1983,8 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t>NEWBORN GAZE:
  The universe
@@ -1986,7 +2029,8 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
         <is>
           <t>BUILDING:
  A cuboid mount
@@ -2035,7 +2079,8 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>PENCIL:
  Ashes reincarnating
@@ -2081,7 +2126,8 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
         <is>
           <t>INNER EAR:
  A living fossil
@@ -2126,7 +2172,8 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>ANTICIPATION:
  One thousand
@@ -2173,7 +2220,8 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
         <is>
           <t>ASSESSMENT:
  The way dogs 
@@ -2219,7 +2267,8 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
         <is>
           <t>BODYBUILDER:
  She wears her skin.</t>
@@ -2263,7 +2312,8 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
         <is>
           <t>SOCIAL MEDIAS:
  Memories
@@ -2317,7 +2367,8 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
         <is>
           <t>EINSTEIN
  (hindrance):
@@ -2362,7 +2413,8 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
         <is>
           <t>PLANTS:
  Under Earth as it is in Heaven,
@@ -2409,7 +2461,8 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
         <is>
           <t>MUSE/MUSIC:
  Heartbeat
@@ -2458,6 +2511,11 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
+          <t>Google Maps</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>GENTRIFICATION:
  "Customise your driving avatar"</t>
         </is>
@@ -2500,7 +2558,8 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
         <is>
           <t>STATIC BICYCLE:
  A ride
@@ -2545,7 +2604,8 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
         <is>
           <t>VERTEBRAE:
  Column,
@@ -2591,7 +2651,8 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
         <is>
           <t>INTELLIGENCE:
  Inversely proportionate
@@ -2637,7 +2698,8 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
         <is>
           <t>CANIS MAJOR:
  Collective Unconsciousness,
@@ -2683,7 +2745,8 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
         <is>
           <t>SPIRIT:
  When the animal stops,
@@ -2728,7 +2791,8 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
         <is>
           <t>ID BADGE:
  The heaviest object
@@ -2773,7 +2837,8 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
         <is>
           <t>IN THE RIVER
  All stones are rounded by time.
@@ -2819,7 +2884,8 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
         <is>
           <t>GRAVE MARKERS
  With only full names
@@ -2866,7 +2932,8 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
         <is>
           <t>CINDERELLA
  Goes to sleep
@@ -2914,7 +2981,8 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
         <is>
           <t>PROPORTIONAL
  Followers of shiny things
@@ -2960,7 +3028,8 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
         <is>
           <t>WEIGHT
  After scanning the whole store 
@@ -3008,7 +3077,8 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
         <is>
           <t>SLEEPING BAG
  This anaconda,
@@ -3054,7 +3124,8 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
         <is>
           <t>THE SLAVES
  Were finally free
@@ -3101,7 +3172,8 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
         <is>
           <t>INFINITY
  From this perspective
@@ -3147,7 +3219,8 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
         <is>
           <t>EVERY NUMBER
  Every number is 
@@ -3194,7 +3267,8 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
         <is>
           <t>THE BACTERIA
  Inside our guts
@@ -3241,7 +3315,8 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
         <is>
           <t>LOOK AROUND
  All metal, glass, plastic and concrete,
@@ -3291,7 +3366,8 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
         <is>
           <t>ORCHESTRA
  Groups of women 
@@ -3340,7 +3416,8 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
         <is>
           <t>A CHINESE EMPEROR
  died
@@ -3389,6 +3466,11 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
+          <t>Edgar Allan Poe</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>EVERYWHERE I LOOK
  "The Masque of the Red Death"</t>
         </is>
@@ -3431,7 +3513,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
         <is>
           <t>A SMALL TIE
  Is a perfect coat
@@ -3476,7 +3559,8 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
         <is>
           <t>SANS-SOUCI
  "Care-free"
@@ -3522,7 +3606,8 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
         <is>
           <t>FROM RED TO GREEN
  There are 
@@ -3568,7 +3653,8 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
         <is>
           <t>BITCOIN WAS THE TEST NET
  For a further 
@@ -3614,7 +3700,8 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
         <is>
           <t>IN THE TEMPLE
  Days of endless mantras
@@ -3659,7 +3746,8 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
         <is>
           <t>SISYPHUS SYZIGY
  Each one of us 
@@ -3708,7 +3796,8 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
         <is>
           <t>I'M FULL OF SUPERSTITION
  as scientificaly backed
@@ -3753,7 +3842,8 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
         <is>
           <t>YOUR SALARY
  is still
@@ -3800,7 +3890,8 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
         <is>
           <t>SEAMLESSLY
  Wherever you see 
@@ -3847,7 +3938,8 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
         <is>
           <t>I KNOW ABOUT HAPPINESS
  Because 
@@ -3893,7 +3985,8 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
         <is>
           <t>COUNTERINTUITIVE
  Removing temptations
@@ -3938,7 +4031,8 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
         <is>
           <t>IN A CASINO
  I lost everything
@@ -3984,7 +4078,8 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
         <is>
           <t>ARTIFICIAL INTELLIGENCE
  Has revealed:
@@ -4030,7 +4125,8 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
         <is>
           <t>MIND WHERE YOU ARE
  Convergent evolution
@@ -4075,7 +4171,8 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
         <is>
           <t>IKARIA WARIOOTIA
  Inside of us all,
@@ -4123,7 +4220,8 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
         <is>
           <t>DEEP SLEEP
  Requires
@@ -4169,7 +4267,8 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
         <is>
           <t>BY THE CUT
  See you
@@ -4216,7 +4315,8 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
         <is>
           <t>DOWN IN THE HORIZON
  Sirius blinks red, white and blue,
@@ -4262,7 +4362,8 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
         <is>
           <t>SUCCESSOR
  Depends on
@@ -4308,7 +4409,8 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
         <is>
           <t>THE CELLS
  That could understand
@@ -4356,7 +4458,8 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
         <is>
           <t>YOU CAN'T GO BACK IN TIME
  But you can move forward
@@ -4404,7 +4507,8 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
         <is>
           <t>ONCE I SAT DOWN
  In Zen Meditation.
@@ -4452,7 +4556,8 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
         <is>
           <t>TAO
  Mistery and Mastery
@@ -4502,6 +4607,11 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
+          <t>Arthur C. Clarke</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>COMMIT
  Humans 'will not longer commute',
  neither 'they will communicate'
@@ -4550,7 +4660,8 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
         <is>
           <t>TRANSCENDENTAL
  Imaginary Time
@@ -4604,7 +4715,8 @@
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
         <is>
           <t>"I" BEARS THE SHADOW
  The sun dances
@@ -4658,7 +4770,8 @@
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
         <is>
           <t>MOUNTAINS
  Are destroyed
@@ -4712,7 +4825,8 @@
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
         <is>
           <t>SHARING THE SAME DNA
  We are all subjects to
@@ -4758,7 +4872,8 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
         <is>
           <t>TIME STAMPS
  Work in progress
@@ -4811,7 +4926,8 @@
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
         <is>
           <t>OUR MEMORIES
  Are being overwritten
@@ -4856,7 +4972,8 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
         <is>
           <t>THE ANTS CAME
  and took away, 
@@ -4915,7 +5032,8 @@
         </is>
       </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
         <is>
           <t>Scrolling
  down
@@ -4972,7 +5090,8 @@
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
         <is>
           <t>Wish to have no followers</t>
         </is>
@@ -5027,7 +5146,8 @@
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
         <is>
           <t>SOUND MINDED
  ✳</t>
@@ -5083,7 +5203,8 @@
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
         <is>
           <t>Google is searching us</t>
         </is>
@@ -5130,7 +5251,8 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
         <is>
           <t>New Britain Mask</t>
         </is>
@@ -5177,7 +5299,8 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
         <is>
           <t>Golden Snub-Nosed Monkey</t>
         </is>
@@ -5224,7 +5347,8 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
         <is>
           <t>Loris</t>
         </is>
@@ -5271,7 +5395,8 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
         <is>
           <t>Japanese Macaque</t>
         </is>
@@ -5318,7 +5443,8 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
         <is>
           <t>Llama</t>
         </is>
@@ -5365,7 +5491,8 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
         <is>
           <t>Red Fox</t>
         </is>
@@ -5412,7 +5539,8 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
         <is>
           <t>Songye Kifwebe Mask</t>
         </is>
@@ -5459,7 +5587,8 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
         <is>
           <t>Bemba Mask</t>
         </is>
@@ -5506,7 +5635,8 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
         <is>
           <t>Elema Mask</t>
         </is>
@@ -5553,7 +5683,8 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
         <is>
           <t>Sepik River Mask</t>
         </is>
@@ -5600,7 +5731,8 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
         <is>
           <t>Palm Peach Mask</t>
         </is>
@@ -5647,7 +5779,8 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
         <is>
           <t>Indonesian Mask</t>
         </is>
@@ -5694,7 +5827,8 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
         <is>
           <t>Philippine Eagle</t>
         </is>
@@ -5741,7 +5875,8 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
         <is>
           <t>Puma</t>
         </is>
@@ -5788,7 +5923,8 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
         <is>
           <t>Sifaka</t>
         </is>
@@ -5835,7 +5971,8 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
         <is>
           <t>Fennec Fox</t>
         </is>
@@ -5882,7 +6019,8 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
         <is>
           <t>Dolphin</t>
         </is>
@@ -5939,6 +6077,11 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
+          <t>Dr. Alan Grant, Jurassic Park III</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
           <t>"Reverse Darwinism:
  Survival of the most idiotic"</t>
         </is>
@@ -5993,7 +6136,8 @@
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
         <is>
           <t>Chicken Heart</t>
         </is>
@@ -6048,7 +6192,8 @@
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
         <is>
           <t>Everything Fist Well</t>
         </is>
@@ -6105,6 +6250,11 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
+          <t>Antoine de Saint-Exupery, The Little Prince.</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>VISIBLE TO ME
  "What is essential is invisible to the eye"</t>
         </is>
@@ -6155,7 +6305,8 @@
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
         <is>
           <t>Crystal Meth Clear</t>
         </is>
@@ -6206,7 +6357,8 @@
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
         <is>
           <t>Iceberg</t>
         </is>
@@ -6261,7 +6413,8 @@
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
         <is>
           <t>Corazón Espinado</t>
         </is>
@@ -6312,7 +6465,8 @@
       </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
         <is>
           <t>Heartless</t>
         </is>
@@ -6367,7 +6521,8 @@
         </is>
       </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
         <is>
           <t>Under the reign of king Minos</t>
         </is>
@@ -6423,7 +6578,8 @@
         </is>
       </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
         <is>
           <t>YUKO SHIMIZU: CONTEMPORARY HEROINES
  How to combine Japanese and American illustration?
@@ -6503,7 +6659,8 @@
           <t>Animal</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
         <is>
           <t>BLINDNESS
  I know the reason why you hate so much this kind of place,
@@ -6572,7 +6729,8 @@
           <t>Animal</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
         <is>
           <t>SELF-DESTRUCTIVE
  Your portraits are getting outdated
@@ -6643,7 +6801,8 @@
           <t>Counterfeit</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
         <is>
           <t>TRIGGER
  Pain, has many names,
@@ -6707,7 +6866,8 @@
           <t>Counterfeit</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
         <is>
           <t>ARMORED HEART
  If you were hurt,
@@ -6771,7 +6931,8 @@
           <t>Collateral</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
         <is>
           <t>NATIVE
  Monocultures monotonize-us,
@@ -6832,7 +6993,8 @@
           <t>Collateral</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
         <is>
           <t>UNINTENDED PERMANENCE
  Every character need to be shaken
@@ -6900,7 +7062,8 @@
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
         <is>
           <t>Lossing weight</t>
         </is>
@@ -6955,7 +7118,8 @@
         </is>
       </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
         <is>
           <t>Native</t>
         </is>
@@ -7006,7 +7170,8 @@
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
         <is>
           <t>Frog You!</t>
         </is>
@@ -7049,7 +7214,8 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
         <is>
           <t>"Wellness only operates under your presence"</t>
         </is>
@@ -7092,7 +7258,8 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
         <is>
           <t>🤖👽💀
  "Automatically Alienated to you until Dead"</t>
@@ -7136,7 +7303,8 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
         <is>
           <t>"You don't have limits when you are on heels"</t>
         </is>
@@ -7181,6 +7349,11 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
+          <t>Kwon-taek</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
           <t>PAINTED FIRE
  Kwon-taek (2002)
  He painted her like a swan

--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -7343,7 +7343,11 @@
           <t>painted, fire, kwon-taek, 2002, like, swan, then, left, swans, farewell</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://kinolorber.com/media_cache/userFiles/uploads/products/chi-hwa-seon/filmpageposter/product_735.jpg</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>

--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -7348,7 +7348,11 @@
           <t>https://kinolorber.com/media_cache/userFiles/uploads/products/chi-hwa-seon/filmpageposter/product_735.jpg</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Chi-hwa-seon, Film Poster</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">

--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://scontent.fmnl17-1.fna.fbcdn.net/v/t1.6435-9/106571268_2953641998089823_5101178333477419442_n.jpg?_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_eui2=AeEmtwk52aqkx5C2dbjvzDrBiDBLio7XAKKIMEuKjtcAoj6RSmvqb0XPK7mL1OVnsi2N0NC5ioiCjVj7ofXif9U6&amp;_nc_ohc=CfQYuCLG8EUQ7kNvwHRCNlr&amp;_nc_oc=AdnUNfrLwKnVGO3VObarEUQEA1kvZ7uBFpXIp-Y03XJKUxRvEydVQ8Bh4dFZWSC5gGI&amp;_nc_zt=23&amp;_nc_ht=scontent.fmnl17-1.fna&amp;_nc_gid=RMDuI2q7Y-gWenH04jOzuQ&amp;oh=00_AfupZLSc1sKmdLe4vFZp0d8Ik2X1SxgBsaJ_haSm9T_wmQ&amp;oe=69AAB315</t>
+          <t>https://drive.google.com/file/d/16lshwnpjHOoXJAHhSGtCTLvguDmVU8Zg/view?usp=drive_link</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://scontent.fmnl17-2.fna.fbcdn.net/v/t1.6435-9/78724257_2495589463895081_408992706052751360_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_eui2=AeHhxvePhvrmws_slWCpLJzcp7PxWXsdowins_FZex2jCJFOiZbtF5kFCWIyAaHxvf1da0t_ZNDMEkHyj2EtA01E&amp;_nc_ohc=4Nq2is-rPuMQ7kNvwFq7B39&amp;_nc_oc=AdkqNRRxOjAiCne1ja-y1VrKvE5iqkFXllyXF6mAmucQUm8Uf8N8kVv4mI4bCLsEs5k&amp;_nc_zt=23&amp;_nc_ht=scontent.fmnl17-2.fna&amp;_nc_gid=as9E_NkQhj90UUbrxFpJrw&amp;oh=00_AfsFqt4TEjcjWJHNEhV5HQ7W-wSCeBT-6BsPAEeCPjikCQ&amp;oe=69AAC3E6</t>
+          <t>https://drive.google.com/file/d/1BxWu91KBh1TCM6eJsotpHkoyV-jOYtSV/view?usp=drive_link</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6717,8 +6717,16 @@
           <t>self-destructive behavior, obsessive-compulsive disorder, hoarding disorder</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dAhSBpGPjazW0Ok_tlYhaCd6KjnRCxZa/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Self-Destructive, Soul Feedback</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>self-destructive behavior, obsessive-compulsive disorder, hoarding disorder</t>
@@ -6854,8 +6862,16 @@
           <t>emotional withdrawal, emotional numbing, emotional detachment, emotional blunting, pistanthrophobia, avoidant attachment, behavioral walls, behavioral guarding</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1irw5VYRZ4kkm5XhLER1FB6CVCxjmaSX8/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Armored Heart, Soul Feedback</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>emotional withdrawal, emotional numbing, emotional detachment, emotional blunting, pistanthrophobia, avoidant attachment, behavioral walls, behavioral guarding</t>
@@ -7370,6 +7386,353 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Concealed</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>concealed-plastic-extensions-redemptions</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>/songs/concealed-plastic-extensions-redemptions/</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>concealing, plastic, extensions, redemptions, con artist, framming</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18_tupZGmpdqRNwjyQ8Wcof9SVKCwgxuC/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Concealed, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Body Dismorphic Disorder</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Collateral</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>CONCEALED
+Just passing by
+and Framing
+(+) Filter-ing.
+Concealer,
+with plastic,
+redemptions,
+extensions.
+Sealed tight,
+Con artist.
+In decades when that make up
+fades away
+Ghost-portraits:
+someone
+who wasn't never really even there.
+Concealed
+Buying,
+Borrowing,
+Renting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Dance</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>dance-electrocardiogram-beauty-eclipse-midday</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>/songs/dance-electrocardiogram-beauty-eclipse-midday/</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>dance, electrocardiogram, beauty, midday, eclipse</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1N4CgRx5ooNFhqKhchcg4VW8yN4fnEQre/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Dance, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Sunk</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>DANCE
+[Part I Bossa Nova]
+Dance,
+the sea
+will survive
+our rush.
+Dance,
+We only remember peaks
+among the waves of electrocardiograms.
+Dance,
+that beauty is a eclipse
+at midday
+And it'll pass through us.
+[Part II Heavy Instrumental Descarga]
+[Part III With Feeling slow Son Cubano]
+You make all this sea
+You and this city
+If you're not here
+there's nothing at all...
+If you're not here
+The evil in me...</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Dejavu</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>dejavu-predestination-repetition-compulsively-commitment</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>/songs/dejavu-predestination-repetition-compulsively-commitment/</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>dejavu, predestination, repetition, compulsively, commitment</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hgo8yjtBI8ol-rbOxEEkokqb9Nr5xThz/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Dejavu, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Animal</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>DEJAVU
+You talk about love
+And predestination
+But every beginning
+Is just repetition
+And that's no love
+That's dejavu.
+Compulsively avoiding commitment
+That's to return.
+And every time is less intense,
+Every time you need more to feel the same,
+The same or less.
+So don't get scared
+If after moaning bodies comes destruction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Dissonance</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>dissonance-doublesidedknife-memory-redeem-rage</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>/songs/dissonance-doublesidedknife-memory-redeem-rage/</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>dissonance, doublesidedknife, memory, redeem, rage</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1F9KRRjwUM7Ukb6YrK025lmMF2CHabllw/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Dissonace, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Counterfeit</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>DISSONANCE
+She searches for a double sided knife,
+To build a memory.
+He said bring your lover to our house,
+And so we all get to feel the same.
+A painful promise,
+Keeps the thread of the story,
+To redeem the animal-rage:
+Dissonance.
+The idea of giving birth
+Don't compensate the hurting
+brought everyday by a dying love.
+"I feel like I wish you had someone you liked"</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sculpture</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Granade</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>granade-heart-fire-relationship-timer-flammable</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>/sculpture/granade-heart-fire-relationship-timer-flammable/</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Sculpture</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>granade, heart, fire, relationship</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1a08h8JyNOQNB2kFHhZZxguyUC19fKWyu/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Granade, Soul Feedback. Zodiac of Soullessness, Glass sculpture</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Granade, Heart</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>"Foreseeing fire in your relationships"</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,8 +1932,16 @@
           <t>virus, database, outdated</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1I6WY4dTmIMX3YbyvpTjuBBFBJ53twXxt/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Virus Database has been outdated</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -7733,6 +7741,148 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mind the Gap</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>distance-step-gap-return-deadend-consistency-trust</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>songs/distance-step-gap-return-deadend-consistency-trust/</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>mind the gap, watch your step, keep your distance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1nDd-NpjMKQ5TT1ARBL9hQEuqHhGCRgnk/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Mind the Gap, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Counterfeit</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>GAP
+I don't believe in words anymore,
+I mirror actions and consistency,
+and since I don't trust you at all
+You better stay in line:
+You better keep your distance mister,
+You better watch your step,
+You better mind the gap.
+Our pictures
+Will disappear
+As if we were never together
+In the first place.
+So play the role
+Of a good
+Stranger:
+For you
+there's just One way,
+No return,
+Dead end.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Opposite</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>opposite-directions-train-thoughts-obliviousness-avatar</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>songs/opposite-directions-train-thoughts-obliviousness-avatar/</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Opposite Directions</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1y-oTWR0YiQwTstdUHOo3Jz40_IAlkNWl/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Opposite Directions, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Counterfeit</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>OPPOSITE DIRECTIONS
+Is not nice, not to see you, despite you being in front of me,
+Poker face, black holes in your eyes,
+There's no further distance than obliviousness,
+Two strangers going to opposite directions,
+Empty vacuum gazes and complete lack of interest,
+Is when physical proximity turns damnation.
+And I wasted my machine-machine-gun against your avatar...
+Smashing, slashing, flashing, crashing...
+Opposite Directions in the train of thoughts,
+I crossed the treshold: expelled from paradise.
+Opposite Directions, streams of consciousness,
+Too much desperation, there's no turning back.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/luismcsoul_content_updated.xlsx
+++ b/data/luismcsoul_content_updated.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7883,6 +7883,162 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pornstar</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>pornstar-summon-witness-spinning-anxiety-devour</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>songs/pornstar-summon-witness-spinning-anxiety-devour/</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Pornstar, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jWyoLGaEbzqYHHJHOz6wVdZFV-B-bDtG/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Pornstar, Soul Feedback. Image by Rainee Colacurcio, NASA picture of the day July 15, 2019.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Animal</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>PORNSTAR
+Sun-Star:
+A witness of our anxious spinning;
+You're not just standing there, but
+/approaching us all,
+And your gaze transforms everything it touches.
+I summon you!
+That someone just deflated and flattened,
+I summon you!
+she came out with moral manichaeism.
+Sun-Star:
+Burning yourself in long term combustion,
+at the end you'll shine even more,
+expanding and absorbing us all.
+I summon you!
+That someone cancelled and postponed,
+I summon you!
+She avoided, forgot or ignored,
+I summon you!
+Today she's resting on her laurels.
+I summon you!
+Today that, with her archaic morals,
+/With nothing remarkable,
+/she passed unnoticed
+(over this world).
+Because I know the real excitement,
+Of the reciprocal attitude,
+That comes together with a gaze
+that would like to devour the world...
+I summon you!
+Because I'm strong, good luck and see you never!</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>songs</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>remote-fight-animal-capitan-devil-control</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>songs/remote-fight-animal-capitan-devil-control/</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>MusicComposition</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Remote, Control, Animal, Capital, Devil, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10XdM8wl5ezT6pJ989gZc6u8RqmXGCflK/view?usp=drive_link</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Remote, Soul Feedback</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Counterfeit</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>REMOTE
+We found ourselves in the middle of the fight,
+that kind of rage that transforms
+the animal (inside of me) in capitan (of my ship),
+Out of a sudden you threatened me with
+Lovers from other eras/without frontiers,
+And my heart turned small and cold!
+I swear, it wasn't me,
+there was a shadow in the room,
+Who blowed up your world:
+Radio-TV-Compu-Phone-Visor.
+If I tear down the wardrobe,
+And If I cease to exist,
+I'm wondering if the devil
+had seen remote the control.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
